--- a/MODIFICACION PRECIOS NOVOFLOR MAR2022.xlsx
+++ b/MODIFICACION PRECIOS NOVOFLOR MAR2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BIOS_Informatica\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\wamp64\www\clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D382B37-8BF2-4507-A69B-497B4FEEAA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7155"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -285,14 +286,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$USD]"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -365,6 +366,34 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -760,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,70 +799,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,42 +821,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -894,10 +841,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -936,43 +879,122 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1008,7 +1030,13 @@
     <xdr:ext cx="5695949" cy="342786"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectángulo 1"/>
+        <xdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1061,7 +1089,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1110,7 +1144,13 @@
     <xdr:ext cx="5657850" cy="843693"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1235,6 +1275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1270,6 +1327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1445,45 +1519,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="59.140625" customWidth="1"/>
-    <col min="3" max="3" width="11" style="29" customWidth="1"/>
+    <col min="3" max="3" width="11" style="11" customWidth="1"/>
     <col min="4" max="4" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="54.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="83"/>
+    <col min="8" max="8" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1494,22 +1568,22 @@
       <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="91">
-        <v>0.21</v>
-      </c>
-      <c r="E2" s="92">
-        <v>0</v>
-      </c>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="43">
+        <v>0.21</v>
+      </c>
+      <c r="E2" s="44">
+        <v>0</v>
+      </c>
+      <c r="F2" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="89" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="83" t="s">
+      <c r="G2" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1520,39 +1594,39 @@
       <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="91">
-        <v>0.21</v>
-      </c>
-      <c r="E3" s="92">
-        <v>0</v>
-      </c>
-      <c r="F3" s="95" t="s">
+      <c r="D3" s="43">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="44">
+        <v>0</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="60">
         <v>2500</v>
       </c>
-      <c r="D4" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
+      <c r="D4" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="63">
         <v>25</v>
       </c>
     </row>
@@ -1560,19 +1634,19 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="60">
         <v>2700</v>
       </c>
-      <c r="D5" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
+      <c r="D5" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E5" s="64">
+        <v>0</v>
+      </c>
+      <c r="F5" s="65">
         <v>27</v>
       </c>
     </row>
@@ -1580,19 +1654,19 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="60">
         <v>5600</v>
       </c>
-      <c r="D6" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="D6" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="65">
         <v>56</v>
       </c>
       <c r="G6" t="s">
@@ -1603,19 +1677,19 @@
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="60">
         <v>2000</v>
       </c>
-      <c r="D7" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="D7" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0</v>
+      </c>
+      <c r="F7" s="65">
         <v>20</v>
       </c>
     </row>
@@ -1623,19 +1697,19 @@
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="60">
         <v>3800</v>
       </c>
-      <c r="D8" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="D8" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E8" s="64">
+        <v>0</v>
+      </c>
+      <c r="F8" s="65">
         <v>38</v>
       </c>
     </row>
@@ -1643,19 +1717,19 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="60">
         <v>3200</v>
       </c>
-      <c r="D9" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="D9" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E9" s="64">
+        <v>0</v>
+      </c>
+      <c r="F9" s="65">
         <v>32</v>
       </c>
     </row>
@@ -1663,85 +1737,85 @@
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="60">
         <v>6200</v>
       </c>
-      <c r="D10" s="34">
-        <v>0.21</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="D10" s="61">
+        <v>0.21</v>
+      </c>
+      <c r="E10" s="64">
+        <v>0</v>
+      </c>
+      <c r="F10" s="65">
         <v>62</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="98"/>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="104">
+      <c r="C11" s="67">
         <v>7200</v>
       </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="36">
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="65">
         <v>72</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="67">
         <v>2800</v>
       </c>
-      <c r="D12" s="101">
-        <v>0.21</v>
-      </c>
-      <c r="E12" s="102">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="D12" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="E12" s="69">
+        <v>0</v>
+      </c>
+      <c r="F12" s="65">
         <v>28</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="67">
         <v>4000</v>
       </c>
-      <c r="D13" s="65">
-        <v>0.21</v>
-      </c>
-      <c r="E13" s="66">
-        <v>0</v>
-      </c>
-      <c r="F13" s="107">
+      <c r="D13" s="71">
+        <v>0.21</v>
+      </c>
+      <c r="E13" s="72">
+        <v>0</v>
+      </c>
+      <c r="F13" s="73">
         <v>40</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="41" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1749,22 +1823,22 @@
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="67">
         <v>6200</v>
       </c>
-      <c r="D14" s="65">
-        <v>0.21</v>
-      </c>
-      <c r="E14" s="66">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="D14" s="71">
+        <v>0.21</v>
+      </c>
+      <c r="E14" s="72">
+        <v>0</v>
+      </c>
+      <c r="F14" s="65">
         <v>62</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1772,39 +1846,39 @@
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="104">
+      <c r="C15" s="67">
         <v>5200</v>
       </c>
-      <c r="D15" s="105">
-        <v>0.21</v>
-      </c>
-      <c r="E15" s="106">
-        <v>0</v>
-      </c>
-      <c r="F15" s="36">
+      <c r="D15" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="E15" s="69">
+        <v>0</v>
+      </c>
+      <c r="F15" s="65">
         <v>52</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="64">
+      <c r="C16" s="67">
         <v>3200</v>
       </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="18">
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="65">
         <v>32</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1812,36 +1886,36 @@
       <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="60">
         <v>3500</v>
       </c>
-      <c r="D17" s="9">
-        <v>0.21</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="D17" s="76">
+        <v>0.21</v>
+      </c>
+      <c r="E17" s="77">
+        <v>0</v>
+      </c>
+      <c r="F17" s="65">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="79">
         <v>11900</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="18">
+      <c r="D18" s="80"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="65">
         <v>119</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1849,22 +1923,22 @@
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="83">
         <v>8600</v>
       </c>
-      <c r="D19" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E19" s="55">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="D19" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E19" s="85">
+        <v>0</v>
+      </c>
+      <c r="F19" s="65">
         <v>86</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1872,39 +1946,39 @@
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="45">
+      <c r="C20" s="87">
         <v>4200</v>
       </c>
-      <c r="D20" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="D20" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E20" s="89">
+        <v>0</v>
+      </c>
+      <c r="F20" s="90">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="87">
         <v>3500</v>
       </c>
-      <c r="D21" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="D21" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E21" s="89">
+        <v>0</v>
+      </c>
+      <c r="F21" s="95">
         <v>35</v>
       </c>
     </row>
@@ -1912,19 +1986,19 @@
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="87">
         <v>3700</v>
       </c>
-      <c r="D22" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18">
+      <c r="D22" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E22" s="89">
+        <v>0</v>
+      </c>
+      <c r="F22" s="65">
         <v>37</v>
       </c>
     </row>
@@ -1932,19 +2006,19 @@
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="87">
         <v>4500</v>
       </c>
-      <c r="D23" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="D23" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E23" s="89">
+        <v>0</v>
+      </c>
+      <c r="F23" s="65">
         <v>45</v>
       </c>
     </row>
@@ -1952,19 +2026,19 @@
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="87">
         <v>6900</v>
       </c>
-      <c r="D24" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="D24" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E24" s="89">
+        <v>0</v>
+      </c>
+      <c r="F24" s="65">
         <v>69</v>
       </c>
     </row>
@@ -1972,19 +2046,19 @@
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="87">
         <v>4200</v>
       </c>
-      <c r="D25" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="D25" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E25" s="89">
+        <v>0</v>
+      </c>
+      <c r="F25" s="65">
         <v>42</v>
       </c>
     </row>
@@ -1992,22 +2066,22 @@
       <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="83">
         <v>3900</v>
       </c>
-      <c r="D26" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="D26" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E26" s="85">
+        <v>0</v>
+      </c>
+      <c r="F26" s="65">
         <v>39</v>
       </c>
-      <c r="G26" s="56" t="s">
+      <c r="G26" s="21" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2015,22 +2089,22 @@
       <c r="A27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="83">
         <v>4900</v>
       </c>
-      <c r="D27" s="79">
-        <v>0.21</v>
-      </c>
-      <c r="E27" s="80">
-        <v>0</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="D27" s="97">
+        <v>0.21</v>
+      </c>
+      <c r="E27" s="98">
+        <v>0</v>
+      </c>
+      <c r="F27" s="65">
         <v>49</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="G27" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2038,22 +2112,22 @@
       <c r="A28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="83">
         <v>3500</v>
       </c>
-      <c r="D28" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E28" s="55">
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="D28" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E28" s="85">
+        <v>0</v>
+      </c>
+      <c r="F28" s="65">
         <v>35</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2061,162 +2135,162 @@
       <c r="A29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="87">
         <v>3400</v>
       </c>
-      <c r="D29" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="D29" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E29" s="89">
+        <v>0</v>
+      </c>
+      <c r="F29" s="65">
         <v>34</v>
       </c>
-      <c r="G29" s="58"/>
+      <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="83">
         <v>11500</v>
       </c>
-      <c r="D30" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E30" s="55">
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="D30" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E30" s="85">
+        <v>0</v>
+      </c>
+      <c r="F30" s="65">
         <v>115</v>
       </c>
-      <c r="G30" s="58" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="59" t="s">
+      <c r="G30" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="32" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="83">
         <v>7500</v>
       </c>
-      <c r="D31" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E31" s="55">
-        <v>0</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="D31" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E31" s="85">
+        <v>0</v>
+      </c>
+      <c r="F31" s="65">
         <v>75</v>
       </c>
-      <c r="G31" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="84"/>
+      <c r="G31" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="87">
         <v>5600</v>
       </c>
-      <c r="D32" s="39">
-        <v>0.21</v>
-      </c>
-      <c r="E32" s="40">
-        <v>0</v>
-      </c>
-      <c r="F32" s="36">
+      <c r="D32" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E32" s="89">
+        <v>0</v>
+      </c>
+      <c r="F32" s="65">
         <v>56</v>
       </c>
-      <c r="G32" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="85"/>
+      <c r="G32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="87">
         <v>6600</v>
       </c>
-      <c r="D33" s="39">
-        <v>0.21</v>
-      </c>
-      <c r="E33" s="40">
-        <v>0</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="D33" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E33" s="89">
+        <v>0</v>
+      </c>
+      <c r="F33" s="65">
         <v>66</v>
       </c>
-      <c r="G33" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="85"/>
+      <c r="G33" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="87">
         <v>9200</v>
       </c>
-      <c r="D34" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-      <c r="F34" s="21">
+      <c r="D34" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E34" s="89">
+        <v>0</v>
+      </c>
+      <c r="F34" s="91">
         <v>92</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34" s="86"/>
+      <c r="G34" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="38"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="83">
         <v>6500</v>
       </c>
-      <c r="D35" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="E35" s="61">
-        <v>0</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="D35" s="92">
+        <v>0.21</v>
+      </c>
+      <c r="E35" s="93">
+        <v>0</v>
+      </c>
+      <c r="F35" s="94">
         <v>65</v>
       </c>
-      <c r="G35" s="62" t="s">
+      <c r="G35" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2224,22 +2298,22 @@
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="83">
         <v>5200</v>
       </c>
-      <c r="D36" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="E36" s="61">
-        <v>0</v>
-      </c>
-      <c r="F36" s="23">
+      <c r="D36" s="92">
+        <v>0.21</v>
+      </c>
+      <c r="E36" s="93">
+        <v>0</v>
+      </c>
+      <c r="F36" s="95">
         <v>52</v>
       </c>
-      <c r="G36" s="62" t="s">
+      <c r="G36" s="24" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2247,22 +2321,22 @@
       <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="87">
         <v>5200</v>
       </c>
-      <c r="D37" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="D37" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E37" s="89">
+        <v>0</v>
+      </c>
+      <c r="F37" s="65">
         <v>52</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2270,19 +2344,19 @@
       <c r="A38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="87">
         <v>7000</v>
       </c>
-      <c r="D38" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-      <c r="F38" s="18">
+      <c r="D38" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E38" s="89">
+        <v>0</v>
+      </c>
+      <c r="F38" s="65">
         <v>70</v>
       </c>
     </row>
@@ -2290,57 +2364,57 @@
       <c r="A39" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="87">
         <v>7600</v>
       </c>
-      <c r="D39" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="D39" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E39" s="89">
+        <v>0</v>
+      </c>
+      <c r="F39" s="65">
         <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="87">
         <v>4500</v>
       </c>
-      <c r="D40" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-      <c r="F40" s="18">
+      <c r="D40" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E40" s="89">
+        <v>0</v>
+      </c>
+      <c r="F40" s="65">
         <v>45</v>
       </c>
-      <c r="G40" s="81" t="s">
+      <c r="G40" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="87">
         <v>1300</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="18">
+      <c r="D41" s="88"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="65">
         <v>13</v>
       </c>
-      <c r="G41" s="96" t="s">
+      <c r="G41" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2348,178 +2422,178 @@
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="87">
         <v>3200</v>
       </c>
-      <c r="D42" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-      <c r="F42" s="18">
+      <c r="D42" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E42" s="89">
+        <v>0</v>
+      </c>
+      <c r="F42" s="65">
         <v>32</v>
       </c>
-      <c r="G42" s="97"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="87">
         <v>7900</v>
       </c>
-      <c r="D43" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="D43" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E43" s="89">
+        <v>0</v>
+      </c>
+      <c r="F43" s="65">
         <v>79</v>
       </c>
-      <c r="G43" s="97"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="83">
         <v>5500</v>
       </c>
-      <c r="D44" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E44" s="55">
-        <v>0</v>
-      </c>
-      <c r="F44" s="27">
+      <c r="D44" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E44" s="85">
+        <v>0</v>
+      </c>
+      <c r="F44" s="94">
         <v>55</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="83">
         <v>890</v>
       </c>
-      <c r="D45" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E45" s="55">
-        <v>0</v>
-      </c>
-      <c r="F45" s="99">
+      <c r="D45" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E45" s="85">
+        <v>0</v>
+      </c>
+      <c r="F45" s="96">
         <v>9</v>
       </c>
-      <c r="G45" s="108" t="s">
+      <c r="G45" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="87">
         <v>1700</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="99">
+      <c r="D46" s="88"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="96">
         <v>17</v>
       </c>
-      <c r="G46" s="100"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="83">
         <v>6500</v>
       </c>
-      <c r="D47" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="E47" s="61">
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="D47" s="92">
+        <v>0.21</v>
+      </c>
+      <c r="E47" s="93">
+        <v>0</v>
+      </c>
+      <c r="F47" s="65">
         <v>65</v>
       </c>
-      <c r="G47" s="58" t="s">
+      <c r="G47" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="83">
         <v>6000</v>
       </c>
-      <c r="D48" s="54">
-        <v>0.21</v>
-      </c>
-      <c r="E48" s="55">
-        <v>0</v>
-      </c>
-      <c r="F48" s="21">
+      <c r="D48" s="84">
+        <v>0.21</v>
+      </c>
+      <c r="E48" s="85">
+        <v>0</v>
+      </c>
+      <c r="F48" s="91">
         <v>60</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="G48" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="59" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="83">
         <v>2900</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="18">
+      <c r="D49" s="84"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="65">
         <v>29</v>
       </c>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="87">
         <v>7500</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="36">
+      <c r="D50" s="88"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="65">
         <v>75</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2527,57 +2601,57 @@
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="83">
         <v>8500</v>
       </c>
-      <c r="D51" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="E51" s="61">
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
+      <c r="D51" s="92">
+        <v>0.21</v>
+      </c>
+      <c r="E51" s="93">
+        <v>0</v>
+      </c>
+      <c r="F51" s="65">
         <v>85</v>
       </c>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="83">
         <v>10900</v>
       </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="18">
+      <c r="D52" s="84"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="65">
         <v>109</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="G52" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="87">
         <v>26000</v>
       </c>
-      <c r="D53" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
+      <c r="D53" s="88">
+        <v>0.21</v>
+      </c>
+      <c r="E53" s="89">
+        <v>0</v>
+      </c>
+      <c r="F53" s="65">
         <v>260</v>
       </c>
     </row>
@@ -2585,22 +2659,22 @@
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="C54" s="53">
+      <c r="C54" s="83">
         <v>4600</v>
       </c>
-      <c r="D54" s="60">
-        <v>0.21</v>
-      </c>
-      <c r="E54" s="61">
-        <v>0</v>
-      </c>
-      <c r="F54" s="18">
+      <c r="D54" s="92">
+        <v>0.21</v>
+      </c>
+      <c r="E54" s="93">
+        <v>0</v>
+      </c>
+      <c r="F54" s="65">
         <v>46</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="23" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2608,19 +2682,19 @@
       <c r="A55" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="100">
         <v>4600</v>
       </c>
-      <c r="D55" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
+      <c r="D55" s="101">
+        <v>0.21</v>
+      </c>
+      <c r="E55" s="102">
+        <v>0</v>
+      </c>
+      <c r="F55" s="103">
         <v>46</v>
       </c>
     </row>
@@ -2628,135 +2702,135 @@
       <c r="A56" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="100">
         <v>3900</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="18">
+      <c r="D56" s="101"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="103">
         <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="25" t="s">
+      <c r="A57" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="44">
+      <c r="C57" s="105">
         <v>4600</v>
       </c>
-      <c r="D57" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="E57" s="16">
-        <v>0</v>
-      </c>
-      <c r="F57" s="26">
+      <c r="D57" s="106">
+        <v>0.21</v>
+      </c>
+      <c r="E57" s="107">
+        <v>0</v>
+      </c>
+      <c r="F57" s="108">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="67" t="s">
+      <c r="A58" s="26"/>
+      <c r="B58" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="68">
+      <c r="C58" s="110">
         <v>4900</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="26">
+      <c r="D58" s="111"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="108">
         <v>49</v>
       </c>
-      <c r="G58" s="37" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="117" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="B59" s="110" t="s">
+      <c r="G58" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="57" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="111">
+      <c r="C59" s="113">
         <v>15000</v>
       </c>
-      <c r="D59" s="112">
-        <v>0.21</v>
-      </c>
-      <c r="E59" s="113">
-        <v>0</v>
-      </c>
-      <c r="F59" s="114">
+      <c r="D59" s="114">
+        <v>0.21</v>
+      </c>
+      <c r="E59" s="115">
+        <v>0</v>
+      </c>
+      <c r="F59" s="116">
         <v>150</v>
       </c>
-      <c r="G59" s="115" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="116"/>
+      <c r="G59" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="56"/>
     </row>
     <row r="60" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G62" s="37"/>
+      <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="G63" s="37"/>
+      <c r="G63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G64" s="37"/>
+      <c r="G64" s="13"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="73"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="88"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="40"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="73"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="88"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="40"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="73"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="75"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="88"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="40"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G68" s="88"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G69" s="88"/>
+      <c r="G69" s="40"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G70" s="88"/>
+      <c r="G70" s="40"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="G71" s="88"/>
+      <c r="G71" s="40"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="87"/>
+      <c r="H72" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2771,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
